--- a/doc/log/201608040131-刘浩.xlsx
+++ b/doc/log/201608040131-刘浩.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E87ED6-D917-42D6-A007-38308754D7F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用spring boot编写了hello world，了解了部分注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不了解配置类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +372,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43417</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/log/201608040131-刘浩.xlsx
+++ b/doc/log/201608040131-刘浩.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E87ED6-D917-42D6-A007-38308754D7F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB721C2-8564-4654-9DF4-81CDF35A1FB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,7 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7:00-9:00</t>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了一下注解的作用，开始学习yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-21:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +384,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -418,6 +426,12 @@
       <c r="A3" s="1">
         <v>43418</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">

--- a/doc/log/201608040131-刘浩.xlsx
+++ b/doc/log/201608040131-刘浩.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB721C2-8564-4654-9DF4-81CDF35A1FB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77CB40C-BF5E-476D-BC3A-8EB7E2202820}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,26 @@
   </si>
   <si>
     <t>19:30-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求计划书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块详细计划书 百分之50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块详细计划书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道怎么相互调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,7 +405,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -442,15 +463,36 @@
       <c r="A5" s="1">
         <v>43420</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43421</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43422</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
